--- a/docs/ST5a/ST5a_24.07.24_output.xlsx
+++ b/docs/ST5a/ST5a_24.07.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K133"/>
+  <dimension ref="A1:N133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,3669 +505,4351 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731014283.3732185</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731014283.706325</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731014283.3732185.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731014283.706325.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>295.68</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>295.37</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.3100000000000023</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731014283.721287</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731014283.7987275</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731014283.721287.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731014283.7987275.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>295.37</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>295.1</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-0.2699999999999818</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731014283.8440282</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731014284.9131072</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731014283.8440282.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731014284.9131072.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>295.3</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>295.86</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.5600000000000023</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731014284.955962</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731014286.1488771</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731014284.955962.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731014286.1488771.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>296.1</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>295.96</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-0.1400000000000432</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731014286.193814</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731014286.5373852</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731014286.193814.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731014286.5373852.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>295.92</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>295.81</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-0.1100000000000136</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731014286.582293</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731014287.074787</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731014286.582293.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731014287.074787.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>295.88</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>295.49</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-0.3899999999999864</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731014287.6017394</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731014287.9089906</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731014287.6017394.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731014287.9089906.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>295.46</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>295.61</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-0.1500000000000341</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731014287.953148</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731014288.4137096</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731014287.953148.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731014288.4137096.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>295.62</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>295.67</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-0.05000000000001137</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731014288.462709</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731014289.2814426</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731014288.462709.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731014289.2814426.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>295.81</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>296</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-0.1899999999999977</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731014289.2993946</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731014289.6406868</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731014289.2993946.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731014289.6406868.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>296</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>295.76</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-0.2400000000000091</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731014289.6855662</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731014289.9251082</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731014289.6855662.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731014289.9251082.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>295.81</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>295.72</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-0.08999999999997499</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731014289.9731772</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731014290.2128248</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731014289.9731772.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731014290.2128248.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>295.82</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>295.8</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-0.01999999999998181</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731014290.2576773</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731014290.2576773.png</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731014290.2576773.png</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>295.78</v>
       </c>
-      <c r="J15" t="n">
-        <v>295.78</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
+      <c r="L15" t="n">
+        <v>296.5</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.7200000000000273</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731014292.2621477</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731014292.7865229</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731014292.2621477.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731014292.7865229.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>135.9</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>136.11</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-0.210000000000008</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731014292.8014574</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731014292.961887</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731014292.8014574.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731014292.961887.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>136.11</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>135.92</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-0.1900000000000261</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731014293.0047712</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731014294.177509</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731014293.0047712.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731014294.177509.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>136.07</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>136.02</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-0.04999999999998295</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731014294.2226117</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731014295.1652017</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731014294.2226117.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731014295.1652017.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>136.1</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>136.01</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-0.09000000000000341</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731014298.818138</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731014299.231155</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731014298.818138.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731014299.231155.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>136.51</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>136.36</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-0.1499999999999773</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731014300.9676456</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731014301.0948706</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731014300.9676456.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731014301.0948706.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>6961.5</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>6971</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>-9.5</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731014301.13626</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731014301.7311673</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731014301.13626.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731014301.7311673.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>6964</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>6976</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>-12</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731014302.0237305</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731014302.3820164</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731014302.0237305.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731014302.3820164.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>7000</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>6980</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-20</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.29</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731014302.4240925</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731014302.7712722</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731014302.4240925.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731014302.7712722.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>6982.5</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>6971</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-11.5</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731014302.817354</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731014303.2176924</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731014302.817354.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731014303.2176924.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>6970.5</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>6969</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-1.5</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731014303.2608967</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731014303.9309297</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731014303.2608967.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731014303.9309297.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>6976.5</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>6981.5</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>5</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731014303.9468594</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731014304.5100737</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731014303.9468594.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731014304.5100737.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>6981.5</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>6969.5</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>12</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731014305.1054103</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731014305.8297431</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731014305.1054103.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731014305.8297431.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>6964.5</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>6966</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-1.5</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731014305.8726945</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731014307.4246774</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731014305.8726945.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731014307.4246774.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>6967</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>6965.5</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>1.5</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731014308.4951768</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731014308.5380797</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731014308.4951768.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731014308.5380797.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>6947</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>6954</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>-7</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731014308.5829601</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731014308.6533527</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731014308.5829601.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731014308.6533527.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>6950</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>6958.5</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-8.5</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731014308.6963196</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731014308.6963196.png</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731014308.6963196.png</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>6959.5</v>
       </c>
-      <c r="J32" t="n">
-        <v>6959.5</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
+      <c r="L32" t="n">
+        <v>6972</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-12.5</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.18</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731014309.9035363</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731014310.7229497</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731014309.9035363.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731014310.7229497.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>533.7</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>534.4</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.6999999999999318</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731014310.7658577</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731014310.9918606</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731014310.7658577.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731014310.9918606.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>535.2</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>534.45</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-0.75</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731014311.0357423</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731014311.3384569</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731014311.0357423.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731014311.3384569.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>535</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>533.85</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-1.149999999999977</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731014311.3817642</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731014313.0787804</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731014311.3817642.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731014313.0787804.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>534.1</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>535.7</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>1.600000000000023</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731014314.2123284</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731014314.718054</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731014314.2123284.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731014314.718054.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>536.85</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>536.05</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>-0.8000000000000682</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731014314.7634196</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731014315.376747</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731014314.7634196.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731014315.376747.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>536.15</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>536</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-0.1499999999999773</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731014315.9879072</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731014316.030793</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731014315.9879072.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731014316.030793.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>536.2</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>535.3</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.9000000000000909</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731014316.1017938</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731014316.5950372</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731014316.1017938.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731014316.5950372.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>536.15</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>536.45</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>-0.3000000000000682</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731014317.9723554</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731014318.3185105</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731014317.9723554.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731014318.3185105.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>1104.6</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>1096.2</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-8.399999999999864</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.76</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731014318.3657649</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731014319.578888</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731014318.3657649.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731014319.578888.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>1098.2</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>1098.4</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.2000000000000455</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731014320.1966088</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731014322.005377</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731014320.1966088.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731014322.005377.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>1100</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>1098.8</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>1.200000000000045</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731014323.24445</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731014323.7053196</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731014323.24445.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731014323.7053196.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>1098</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>1093.2</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>4.799999999999955</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731014324.1327875</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731014325.244334</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731014324.1327875.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731014325.244334.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>1095</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>1089.8</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>5.200000000000045</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.47</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731014326.72423</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731014327.7890644</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731014326.72423.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731014327.7890644.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>128.7</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>129.16</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.460000000000008</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731014327.8337634</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731014328.3199806</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731014327.8337634.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731014328.3199806.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>129.2</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>129.46</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.2600000000000193</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731014328.8276484</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731014329.2556767</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731014328.8276484.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731014329.2556767.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>129.58</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>129.32</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>-0.2600000000000193</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731014329.3008215</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731014329.4311585</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731014329.3008215.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731014329.4311585.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>129.4</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>129.68</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.2800000000000011</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731014329.6760597</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731014330.2770672</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731014329.6760597.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731014330.2770672.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>129.5</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>128.96</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>-0.539999999999992</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-0.42</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731014330.5636642</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731014331.3907056</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731014330.5636642.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731014331.3907056.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>129.44</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>130.82</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>-1.379999999999995</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-1.07</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731014331.405668</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731014332.3938496</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731014331.405668.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731014332.3938496.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>130.82</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>131.28</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.460000000000008</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731014332.4378507</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731014332.9875154</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731014332.4378507.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731014332.9875154.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>131.28</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>130.92</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>-0.3600000000000136</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-0.27</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731014333.0330033</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731014334.0698817</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731014333.0330033.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731014334.0698817.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>130.92</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>131.34</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.4200000000000159</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.32</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731014334.0848413</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731014334.1267035</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731014334.0848413.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731014334.1267035.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>131.34</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>131.38</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>-0.03999999999999204</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731014334.1719432</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731014334.350217</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731014334.1719432.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731014334.350217.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>131.36</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>131.46</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>-0.09999999999999432</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731014334.3921056</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731014334.3921056.png</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731014334.3921056.png</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>131.42</v>
       </c>
-      <c r="J57" t="n">
-        <v>131.42</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0</v>
+      <c r="L57" t="n">
+        <v>131.44</v>
+      </c>
+      <c r="M57" t="n">
+        <v>-0.02000000000001023</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731014334.7870922</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731014336.2061107</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731014334.7870922.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731014336.2061107.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>168.26</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>168.64</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>-0.3799999999999955</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731014339.0745828</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731014339.1204095</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731014339.0745828.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731014339.1204095.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>169.22</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>169.68</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>-0.460000000000008</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-0.27</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731014340.5423691</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731014340.8485854</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731014340.5423691.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731014340.8485854.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>171.26</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>171.64</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.3799999999999955</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731014340.9010372</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731014341.4287646</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731014340.9010372.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731014341.4287646.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>171.8</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>172.76</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.9599999999999795</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.5599999999999999</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731014341.6894817</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731014342.6642427</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731014341.6894817.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731014342.6642427.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>172.28</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>172.18</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>-0.09999999999999432</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731014342.7089725</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731014342.936464</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731014342.7089725.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731014342.936464.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>171.76</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>171.72</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>-0.03999999999999204</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731014342.9813442</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731014342.9813442.png</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731014342.9813442.png</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>171.64</v>
       </c>
-      <c r="J64" t="n">
-        <v>171.64</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0</v>
+      <c r="L64" t="n">
+        <v>171.74</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.1000000000000227</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731014343.1970541</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731014343.9502823</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731014343.1970541.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731014343.9502823.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>53.48</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>53.485</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>-0.005000000000002558</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731014343.9961624</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731014346.0733645</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731014343.9961624.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731014346.0733645.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>53.375</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>53.37</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>0.005000000000002558</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731014346.8851454</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731014348.1381025</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731014346.8851454.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731014348.1381025.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>53.32</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>53.6</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>0.2800000000000011</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.53</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731014348.6689565</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731014349.8272932</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731014348.6689565.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731014349.8272932.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>53.6</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>53.635</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>0.03499999999999659</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731014349.874734</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731014350.9214685</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731014349.874734.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731014350.9214685.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>53.655</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>53.66</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>0.004999999999995453</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731014351.2373302</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731014351.2373302.png</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731014351.2373302.png</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>53.51</v>
       </c>
-      <c r="J70" t="n">
-        <v>53.51</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0</v>
+      <c r="L70" t="n">
+        <v>53.535</v>
+      </c>
+      <c r="M70" t="n">
+        <v>-0.02499999999999858</v>
+      </c>
+      <c r="N70" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731014351.7032979</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731014352.4525049</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731014351.7032979.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731014352.4525049.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>1459.4</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>1461.6</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>-2.199999999999818</v>
+      </c>
+      <c r="N71" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731014352.4976692</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731014353.129412</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731014352.4976692.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731014353.129412.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>1460</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>1465</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>-5</v>
+      </c>
+      <c r="N72" t="n">
+        <v>-0.34</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731014353.4124846</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731014356.3034415</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731014353.4124846.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731014356.3034415.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>1464.8</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>1465</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>0.2000000000000455</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731014356.6886044</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731014356.9083753</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731014356.6886044.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731014356.9083753.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>1468.6</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>1472.2</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>-3.600000000000136</v>
+      </c>
+      <c r="N74" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731014357.2408233</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731014358.6173937</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731014357.2408233.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731014358.6173937.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>1467.8</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>1469.8</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>2</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731014359.7699323</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731014359.7699323.png</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731014359.7699323.png</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>1466.6</v>
       </c>
-      <c r="J76" t="n">
-        <v>1466.6</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0</v>
+      <c r="L76" t="n">
+        <v>1464.8</v>
+      </c>
+      <c r="M76" t="n">
+        <v>-1.799999999999955</v>
+      </c>
+      <c r="N76" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731014361.5047326</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731014362.090936</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731014361.5047326.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731014362.090936.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>64.06999999999999</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>64.06999999999999</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4160,685 +4857,811 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731014362.1078615</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731014362.647391</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731014362.1078615.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731014362.647391.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>64.06999999999999</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>63.92</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>-0.1499999999999915</v>
+      </c>
+      <c r="N78" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731014362.6942384</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731014364.4729977</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731014362.6942384.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731014364.4729977.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>63.93</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>63.99</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731014365.9809093</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731014366.8647935</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731014365.9809093.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731014366.8647935.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>64.23999999999999</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>64.39</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>0.1500000000000057</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731014366.9974902</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731014367.1661897</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731014366.9974902.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731014367.1661897.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>64.23</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>64.09999999999999</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>-0.1300000000000097</v>
+      </c>
+      <c r="N81" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731014368.3332593</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731014370.0365074</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/SELG1731014368.3332593.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/SELG1731014370.0365074.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>59.46</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>59.33</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>0.1300000000000026</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731014372.3216965</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731014373.2237349</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/SELG1731014372.3216965.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/SELG1731014373.2237349.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>59.03</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>58.92</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>-0.1099999999999994</v>
+      </c>
+      <c r="N83" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731014373.23972</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731014373.313546</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/SELG1731014373.23972.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/SELG1731014373.313546.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>58.92</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>58.96</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>-0.03999999999999915</v>
+      </c>
+      <c r="N84" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731014373.358527</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1731014373.639338</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/SELG1731014373.358527.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/SELG1731014373.639338.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>58.96</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>59.05</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>-0.08999999999999631</v>
+      </c>
+      <c r="N85" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731014373.6847146</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1731014374.415273</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/SELG1731014373.6847146.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/SELG1731014374.415273.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>59.05</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>59.06</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>-0.01000000000000512</v>
+      </c>
+      <c r="N86" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731014375.3523908</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1731014376.1891928</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/SELG1731014375.3523908.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/SELG1731014376.1891928.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>59.21</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>59.24</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>0.03000000000000114</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731014376.7652965</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1731014378.523535</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731014376.7652965.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731014378.523535.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>146.2</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>146.12</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>0.07999999999998408</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731014380.8554006</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1731014380.9278848</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731014380.8554006.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731014380.9278848.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>145.84</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>146.1</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>-0.2599999999999909</v>
+      </c>
+      <c r="N89" t="n">
+        <v>-0.18</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1731014380.9927118</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>1731014382.6685748</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731014380.9927118.png</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731014382.6685748.png</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>146.14</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>145.36</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>0.7799999999999727</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.53</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1731014382.9163382</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>1731014384.093653</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731014382.9163382.png</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731014384.093653.png</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>145.38</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>145.38</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4846,236 +5669,281 @@
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1731014384.1385324</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>1731014384.3523204</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731014384.1385324.png</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731014384.3523204.png</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>145.38</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>145.86</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>-0.4800000000000182</v>
+      </c>
+      <c r="N92" t="n">
+        <v>-0.33</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1731014384.3692756</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731014384.3692756.png</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731014384.3692756.png</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>145.86</v>
       </c>
-      <c r="J93" t="n">
-        <v>145.86</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0</v>
+      <c r="L93" t="n">
+        <v>146.1</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.2399999999999807</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1731014385.1111414</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>1731014385.7957208</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731014385.1111414.png</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731014385.7957208.png</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>90.40000000000001</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>90.62</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
         <v>0.2199999999999989</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>1731014385.8379228</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>1731014385.8814285</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731014385.8379228.png</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731014385.8814285.png</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
         <v>90.56</v>
       </c>
-      <c r="J95" t="n">
+      <c r="L95" t="n">
         <v>90.2</v>
       </c>
-      <c r="K95" t="n">
+      <c r="M95" t="n">
         <v>-0.3599999999999994</v>
+      </c>
+      <c r="N95" t="n">
+        <v>-0.4</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>1731014385.9242866</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>1731014386.8358989</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731014385.9242866.png</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731014386.8358989.png</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
         <v>90.18000000000001</v>
       </c>
-      <c r="J96" t="n">
+      <c r="L96" t="n">
         <v>90.18000000000001</v>
       </c>
-      <c r="K96" t="n">
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+      <c r="N96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5083,489 +5951,579 @@
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>1731014386.8528812</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>1731014388.0314095</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731014386.8528812.png</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731014388.0314095.png</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
         <v>90.18000000000001</v>
       </c>
-      <c r="J97" t="n">
+      <c r="L97" t="n">
         <v>89.7</v>
       </c>
-      <c r="K97" t="n">
+      <c r="M97" t="n">
         <v>0.480000000000004</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.53</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>1731014388.734355</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>1731014388.9706836</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731014388.734355.png</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731014388.9706836.png</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
         <v>89.54000000000001</v>
       </c>
-      <c r="J98" t="n">
+      <c r="L98" t="n">
         <v>88.59999999999999</v>
       </c>
-      <c r="K98" t="n">
+      <c r="M98" t="n">
         <v>0.9400000000000119</v>
+      </c>
+      <c r="N98" t="n">
+        <v>1.05</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D99" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>1731014389.212866</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>1731014389.4136739</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731014389.212866.png</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731014389.4136739.png</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
         <v>89.16</v>
       </c>
-      <c r="J99" t="n">
+      <c r="L99" t="n">
         <v>89.38</v>
       </c>
-      <c r="K99" t="n">
+      <c r="M99" t="n">
         <v>-0.2199999999999989</v>
+      </c>
+      <c r="N99" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" t="n">
+        <v>98</v>
+      </c>
+      <c r="C100" t="n">
+        <v>98</v>
+      </c>
+      <c r="D100" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>1731014389.4566321</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>1731014391.0280166</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731014389.4566321.png</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731014391.0280166.png</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
         <v>89.34</v>
       </c>
-      <c r="J100" t="n">
+      <c r="L100" t="n">
         <v>89.38</v>
       </c>
-      <c r="K100" t="n">
+      <c r="M100" t="n">
         <v>-0.03999999999999204</v>
+      </c>
+      <c r="N100" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" t="n">
+        <v>99</v>
+      </c>
+      <c r="C101" t="n">
+        <v>99</v>
+      </c>
+      <c r="D101" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>1731014393.1653621</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>1731014393.9258497</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731014393.1653621.png</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731014393.9258497.png</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I101" t="n">
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
         <v>361.83</v>
       </c>
-      <c r="J101" t="n">
+      <c r="L101" t="n">
         <v>361.68</v>
       </c>
-      <c r="K101" t="n">
+      <c r="M101" t="n">
         <v>0.1499999999999773</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B102" t="n">
+        <v>100</v>
+      </c>
+      <c r="C102" t="n">
+        <v>100</v>
+      </c>
+      <c r="D102" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>1731014393.9708836</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>1731014394.3978136</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731014393.9708836.png</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731014394.3978136.png</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="I102" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I102" t="n">
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
         <v>360.47</v>
       </c>
-      <c r="J102" t="n">
+      <c r="L102" t="n">
         <v>361.85</v>
       </c>
-      <c r="K102" t="n">
+      <c r="M102" t="n">
         <v>-1.379999999999995</v>
+      </c>
+      <c r="N102" t="n">
+        <v>-0.38</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B103" t="n">
+        <v>101</v>
+      </c>
+      <c r="C103" t="n">
+        <v>101</v>
+      </c>
+      <c r="D103" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>1731014394.7828684</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>1731014395.3863258</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731014394.7828684.png</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="H103" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731014395.3863258.png</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="I103" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I103" t="n">
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
         <v>360.74</v>
       </c>
-      <c r="J103" t="n">
+      <c r="L103" t="n">
         <v>364.06</v>
       </c>
-      <c r="K103" t="n">
+      <c r="M103" t="n">
         <v>3.319999999999993</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0.9199999999999999</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B104" t="n">
+        <v>102</v>
+      </c>
+      <c r="C104" t="n">
+        <v>102</v>
+      </c>
+      <c r="D104" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>1731014395.4880142</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>1731014395.9375808</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731014395.4880142.png</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="H104" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731014395.9375808.png</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
+      <c r="I104" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I104" t="n">
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
         <v>363.02</v>
       </c>
-      <c r="J104" t="n">
+      <c r="L104" t="n">
         <v>363.36</v>
       </c>
-      <c r="K104" t="n">
+      <c r="M104" t="n">
         <v>0.3400000000000318</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B105" t="n">
+        <v>103</v>
+      </c>
+      <c r="C105" t="n">
+        <v>103</v>
+      </c>
+      <c r="D105" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>1731014395.983658</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>1731014397.0026412</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731014395.983658.png</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="H105" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731014397.0026412.png</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
+      <c r="I105" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I105" t="n">
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
         <v>363.38</v>
       </c>
-      <c r="J105" t="n">
+      <c r="L105" t="n">
         <v>361.6</v>
       </c>
-      <c r="K105" t="n">
+      <c r="M105" t="n">
         <v>-1.779999999999973</v>
+      </c>
+      <c r="N105" t="n">
+        <v>-0.49</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B106" t="n">
+        <v>104</v>
+      </c>
+      <c r="C106" t="n">
+        <v>104</v>
+      </c>
+      <c r="D106" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>1731014397.0487602</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>1731014397.3524466</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731014397.0487602.png</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="H106" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731014397.3524466.png</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr">
+      <c r="I106" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I106" t="n">
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
         <v>361.5</v>
       </c>
-      <c r="J106" t="n">
+      <c r="L106" t="n">
         <v>361.5</v>
       </c>
-      <c r="K106" t="n">
+      <c r="M106" t="n">
+        <v>0</v>
+      </c>
+      <c r="N106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5573,1159 +6531,1375 @@
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B107" t="n">
+        <v>105</v>
+      </c>
+      <c r="C107" t="n">
+        <v>105</v>
+      </c>
+      <c r="D107" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>1731014397.5410578</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>1731014397.675904</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731014397.5410578.png</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="H107" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731014397.675904.png</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr">
+      <c r="I107" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I107" t="n">
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
         <v>362.99</v>
       </c>
-      <c r="J107" t="n">
+      <c r="L107" t="n">
         <v>362.8</v>
       </c>
-      <c r="K107" t="n">
+      <c r="M107" t="n">
         <v>0.1899999999999977</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B108" t="n">
+        <v>106</v>
+      </c>
+      <c r="C108" t="n">
+        <v>106</v>
+      </c>
+      <c r="D108" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>1731014397.7227757</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>1731014397.971579</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731014397.7227757.png</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="H108" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731014397.971579.png</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr">
+      <c r="I108" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I108" t="n">
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
         <v>362.76</v>
       </c>
-      <c r="J108" t="n">
+      <c r="L108" t="n">
         <v>363.14</v>
       </c>
-      <c r="K108" t="n">
+      <c r="M108" t="n">
         <v>-0.3799999999999955</v>
+      </c>
+      <c r="N108" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B109" t="n">
+        <v>107</v>
+      </c>
+      <c r="C109" t="n">
+        <v>107</v>
+      </c>
+      <c r="D109" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>1731014398.0174427</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>1731014398.5101938</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731014398.0174427.png</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="H109" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731014398.5101938.png</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr">
+      <c r="I109" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I109" t="n">
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
         <v>363.78</v>
       </c>
-      <c r="J109" t="n">
+      <c r="L109" t="n">
         <v>363.69</v>
       </c>
-      <c r="K109" t="n">
+      <c r="M109" t="n">
         <v>0.08999999999997499</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B110" t="n">
+        <v>108</v>
+      </c>
+      <c r="C110" t="n">
+        <v>108</v>
+      </c>
+      <c r="D110" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>1731014398.7910643</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>1731014399.905784</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731014398.7910643.png</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="H110" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731014399.905784.png</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr">
+      <c r="I110" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I110" t="n">
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
         <v>362.7</v>
       </c>
-      <c r="J110" t="n">
+      <c r="L110" t="n">
         <v>362.69</v>
       </c>
-      <c r="K110" t="n">
+      <c r="M110" t="n">
         <v>-0.009999999999990905</v>
+      </c>
+      <c r="N110" t="n">
+        <v>-0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B111" t="n">
+        <v>109</v>
+      </c>
+      <c r="C111" t="n">
+        <v>109</v>
+      </c>
+      <c r="D111" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>1731014399.9227405</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>1731014399.9686177</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731014399.9227405.png</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="H111" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731014399.9686177.png</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr">
+      <c r="I111" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I111" t="n">
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
         <v>362.69</v>
       </c>
-      <c r="J111" t="n">
+      <c r="L111" t="n">
         <v>362.96</v>
       </c>
-      <c r="K111" t="n">
+      <c r="M111" t="n">
         <v>-0.2699999999999818</v>
+      </c>
+      <c r="N111" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B112" t="n">
+        <v>110</v>
+      </c>
+      <c r="C112" t="n">
+        <v>110</v>
+      </c>
+      <c r="D112" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>1731014400.014495</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>1731014401.5577815</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731014400.014495.png</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="H112" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731014401.5577815.png</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr">
+      <c r="I112" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I112" t="n">
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
         <v>363.54</v>
       </c>
-      <c r="J112" t="n">
+      <c r="L112" t="n">
         <v>371.66</v>
       </c>
-      <c r="K112" t="n">
+      <c r="M112" t="n">
         <v>-8.120000000000005</v>
+      </c>
+      <c r="N112" t="n">
+        <v>-2.23</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B113" t="n">
+        <v>111</v>
+      </c>
+      <c r="C113" t="n">
+        <v>111</v>
+      </c>
+      <c r="D113" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>1731014401.5737386</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>1731014401.6468604</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731014401.5737386.png</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="H113" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731014401.6468604.png</t>
         </is>
       </c>
-      <c r="G113" t="inlineStr">
+      <c r="I113" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I113" t="n">
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
         <v>371.66</v>
       </c>
-      <c r="J113" t="n">
+      <c r="L113" t="n">
         <v>371.02</v>
       </c>
-      <c r="K113" t="n">
+      <c r="M113" t="n">
         <v>-0.6400000000000432</v>
+      </c>
+      <c r="N113" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B114" t="n">
+        <v>112</v>
+      </c>
+      <c r="C114" t="n">
+        <v>112</v>
+      </c>
+      <c r="D114" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>1731014402.107263</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr"/>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>./test_images/BSPB1731014402.107263.png</t>
         </is>
       </c>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr">
         <is>
+          <t>./test_images/BSPB1731014402.107263.png</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I114" t="n">
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
         <v>369.52</v>
       </c>
-      <c r="J114" t="n">
-        <v>369.52</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0</v>
+      <c r="L114" t="n">
+        <v>370.24</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0.7200000000000273</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B115" t="n">
+        <v>113</v>
+      </c>
+      <c r="C115" t="n">
+        <v>113</v>
+      </c>
+      <c r="D115" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>1731014402.3081372</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>1731014403.048626</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>./test_images/FEES1731014402.3081372.png</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="H115" t="inlineStr">
         <is>
           <t>./test_images/FEES1731014403.048626.png</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr">
+      <c r="I115" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I115" t="n">
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
         <v>0.09908</v>
       </c>
-      <c r="J115" t="n">
+      <c r="L115" t="n">
         <v>0.09948000000000001</v>
       </c>
-      <c r="K115" t="n">
+      <c r="M115" t="n">
         <v>-0.0004000000000000115</v>
+      </c>
+      <c r="N115" t="n">
+        <v>-0.4</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B116" t="n">
+        <v>114</v>
+      </c>
+      <c r="C116" t="n">
+        <v>114</v>
+      </c>
+      <c r="D116" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>1731014403.919077</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>1731014405.6174574</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>./test_images/FEES1731014403.919077.png</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="H116" t="inlineStr">
         <is>
           <t>./test_images/FEES1731014405.6174574.png</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr">
+      <c r="I116" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I116" t="n">
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
         <v>0.10042</v>
       </c>
-      <c r="J116" t="n">
+      <c r="L116" t="n">
         <v>0.10046</v>
       </c>
-      <c r="K116" t="n">
+      <c r="M116" t="n">
         <v>3.999999999999837e-05</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B117" t="n">
+        <v>115</v>
+      </c>
+      <c r="C117" t="n">
+        <v>115</v>
+      </c>
+      <c r="D117" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>1731014406.9552572</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>1731014407.4693394</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>./test_images/FEES1731014406.9552572.png</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="H117" t="inlineStr">
         <is>
           <t>./test_images/FEES1731014407.4693394.png</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr">
+      <c r="I117" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I117" t="n">
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
         <v>0.1004</v>
       </c>
-      <c r="J117" t="n">
+      <c r="L117" t="n">
         <v>0.10056</v>
       </c>
-      <c r="K117" t="n">
-        <v>0.0001600000000000074</v>
+      <c r="M117" t="n">
+        <v>0.0001599999999999935</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B118" t="n">
+        <v>116</v>
+      </c>
+      <c r="C118" t="n">
+        <v>116</v>
+      </c>
+      <c r="D118" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>1731014409.3259256</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>1731014409.372797</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>./test_images/FEES1731014409.3259256.png</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="H118" t="inlineStr">
         <is>
           <t>./test_images/FEES1731014409.372797.png</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr">
+      <c r="I118" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I118" t="n">
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
         <v>0.1003</v>
       </c>
-      <c r="J118" t="n">
+      <c r="L118" t="n">
         <v>0.10016</v>
       </c>
-      <c r="K118" t="n">
-        <v>0.0001399999999999874</v>
+      <c r="M118" t="n">
+        <v>0.0001400000000000012</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="B119" t="n">
+        <v>117</v>
+      </c>
+      <c r="C119" t="n">
+        <v>117</v>
+      </c>
+      <c r="D119" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>1731014410.8269124</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>1731014411.6644921</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>./test_images/MXI1731014410.8269124.png</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="H119" t="inlineStr">
         <is>
           <t>./test_images/MXI1731014411.6644921.png</t>
         </is>
       </c>
-      <c r="G119" t="inlineStr">
+      <c r="I119" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I119" t="n">
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
         <v>3115.65</v>
       </c>
-      <c r="J119" t="n">
+      <c r="L119" t="n">
         <v>3121</v>
       </c>
-      <c r="K119" t="n">
+      <c r="M119" t="n">
         <v>-5.349999999999909</v>
+      </c>
+      <c r="N119" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="B120" t="n">
+        <v>118</v>
+      </c>
+      <c r="C120" t="n">
+        <v>118</v>
+      </c>
+      <c r="D120" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>1731014411.681648</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>1731014412.5687997</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>./test_images/MXI1731014411.681648.png</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="H120" t="inlineStr">
         <is>
           <t>./test_images/MXI1731014412.5687997.png</t>
         </is>
       </c>
-      <c r="G120" t="inlineStr">
+      <c r="I120" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I120" t="n">
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
         <v>3121</v>
       </c>
-      <c r="J120" t="n">
+      <c r="L120" t="n">
         <v>3118.95</v>
       </c>
-      <c r="K120" t="n">
+      <c r="M120" t="n">
         <v>-2.050000000000182</v>
+      </c>
+      <c r="N120" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="B121" t="n">
+        <v>119</v>
+      </c>
+      <c r="C121" t="n">
+        <v>119</v>
+      </c>
+      <c r="D121" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>1731014412.615702</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>1731014413.469798</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>./test_images/MXI1731014412.615702.png</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="H121" t="inlineStr">
         <is>
           <t>./test_images/MXI1731014413.469798.png</t>
         </is>
       </c>
-      <c r="G121" t="inlineStr">
+      <c r="I121" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I121" t="n">
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
         <v>3118.2</v>
       </c>
-      <c r="J121" t="n">
+      <c r="L121" t="n">
         <v>3119.8</v>
       </c>
-      <c r="K121" t="n">
+      <c r="M121" t="n">
         <v>1.600000000000364</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="B122" t="n">
+        <v>120</v>
+      </c>
+      <c r="C122" t="n">
+        <v>120</v>
+      </c>
+      <c r="D122" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>1731014413.5154948</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>1731014413.7935596</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>./test_images/MXI1731014413.5154948.png</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="H122" t="inlineStr">
         <is>
           <t>./test_images/MXI1731014413.7935596.png</t>
         </is>
       </c>
-      <c r="G122" t="inlineStr">
+      <c r="I122" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I122" t="n">
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
         <v>3119.25</v>
       </c>
-      <c r="J122" t="n">
+      <c r="L122" t="n">
         <v>3119.1</v>
       </c>
-      <c r="K122" t="n">
+      <c r="M122" t="n">
         <v>-0.1500000000000909</v>
+      </c>
+      <c r="N122" t="n">
+        <v>-0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B123" t="n">
+        <v>121</v>
+      </c>
+      <c r="C123" t="n">
+        <v>121</v>
+      </c>
+      <c r="D123" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>1731014414.9880059</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>1731014415.3301578</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>./test_images/MXI1731014414.9880059.png</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="H123" t="inlineStr">
         <is>
           <t>./test_images/MXI1731014415.3301578.png</t>
         </is>
       </c>
-      <c r="G123" t="inlineStr">
+      <c r="I123" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I123" t="n">
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
         <v>3119.35</v>
       </c>
-      <c r="J123" t="n">
+      <c r="L123" t="n">
         <v>3121.9</v>
       </c>
-      <c r="K123" t="n">
+      <c r="M123" t="n">
         <v>-2.550000000000182</v>
+      </c>
+      <c r="N123" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B124" t="n">
+        <v>122</v>
+      </c>
+      <c r="C124" t="n">
+        <v>122</v>
+      </c>
+      <c r="D124" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>1731014416.63836</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>1731014416.8098824</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>./test_images/MXI1731014416.63836.png</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="H124" t="inlineStr">
         <is>
           <t>./test_images/MXI1731014416.8098824.png</t>
         </is>
       </c>
-      <c r="G124" t="inlineStr">
+      <c r="I124" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I124" t="n">
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
         <v>3125.2</v>
       </c>
-      <c r="J124" t="n">
+      <c r="L124" t="n">
         <v>3121.5</v>
       </c>
-      <c r="K124" t="n">
+      <c r="M124" t="n">
         <v>-3.699999999999818</v>
+      </c>
+      <c r="N124" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B125" t="n">
+        <v>123</v>
+      </c>
+      <c r="C125" t="n">
+        <v>123</v>
+      </c>
+      <c r="D125" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>1731014416.858752</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>1731014418.792065</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>./test_images/MXI1731014416.858752.png</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
+      <c r="H125" t="inlineStr">
         <is>
           <t>./test_images/MXI1731014418.792065.png</t>
         </is>
       </c>
-      <c r="G125" t="inlineStr">
+      <c r="I125" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I125" t="n">
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
         <v>3123.2</v>
       </c>
-      <c r="J125" t="n">
+      <c r="L125" t="n">
         <v>3136.65</v>
       </c>
-      <c r="K125" t="n">
+      <c r="M125" t="n">
         <v>13.45000000000027</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0.43</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="B126" t="n">
+        <v>124</v>
+      </c>
+      <c r="C126" t="n">
+        <v>124</v>
+      </c>
+      <c r="D126" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>1731014418.8996403</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="F126" t="inlineStr">
         <is>
           <t>1731014418.9826078</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t>./test_images/MXI1731014418.8996403.png</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
+      <c r="H126" t="inlineStr">
         <is>
           <t>./test_images/MXI1731014418.9826078.png</t>
         </is>
       </c>
-      <c r="G126" t="inlineStr">
+      <c r="I126" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I126" t="n">
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
         <v>3137.3</v>
       </c>
-      <c r="J126" t="n">
+      <c r="L126" t="n">
         <v>3134</v>
       </c>
-      <c r="K126" t="n">
+      <c r="M126" t="n">
         <v>-3.300000000000182</v>
+      </c>
+      <c r="N126" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="B127" t="n">
+        <v>125</v>
+      </c>
+      <c r="C127" t="n">
+        <v>125</v>
+      </c>
+      <c r="D127" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>1731014419.029704</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="F127" t="inlineStr">
         <is>
           <t>1731014419.2055194</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>./test_images/MXI1731014419.029704.png</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
+      <c r="H127" t="inlineStr">
         <is>
           <t>./test_images/MXI1731014419.2055194.png</t>
         </is>
       </c>
-      <c r="G127" t="inlineStr">
+      <c r="I127" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I127" t="n">
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
         <v>3133</v>
       </c>
-      <c r="J127" t="n">
+      <c r="L127" t="n">
         <v>3130</v>
       </c>
-      <c r="K127" t="n">
+      <c r="M127" t="n">
         <v>-3</v>
+      </c>
+      <c r="N127" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="B128" t="n">
+        <v>126</v>
+      </c>
+      <c r="C128" t="n">
+        <v>126</v>
+      </c>
+      <c r="D128" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>1731014419.251741</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr"/>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731014419.251741.png</t>
         </is>
       </c>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731014419.251741.png</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I128" t="n">
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
         <v>3130.6</v>
       </c>
-      <c r="J128" t="n">
-        <v>3130.6</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0</v>
+      <c r="L128" t="n">
+        <v>3132.95</v>
+      </c>
+      <c r="M128" t="n">
+        <v>2.349999999999909</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="B129" t="n">
+        <v>127</v>
+      </c>
+      <c r="C129" t="n">
+        <v>127</v>
+      </c>
+      <c r="D129" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="E129" t="inlineStr">
         <is>
           <t>1731014419.5025413</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
+      <c r="F129" t="inlineStr">
         <is>
           <t>1731014421.225138</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
+      <c r="G129" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731014419.5025413.png</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
+      <c r="H129" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731014421.225138.png</t>
         </is>
       </c>
-      <c r="G129" t="inlineStr">
+      <c r="I129" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I129" t="n">
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
         <v>38.38</v>
       </c>
-      <c r="J129" t="n">
+      <c r="L129" t="n">
         <v>38.105</v>
       </c>
-      <c r="K129" t="n">
+      <c r="M129" t="n">
         <v>0.2750000000000057</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0.72</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="B130" t="n">
+        <v>128</v>
+      </c>
+      <c r="C130" t="n">
+        <v>128</v>
+      </c>
+      <c r="D130" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
+      <c r="E130" t="inlineStr">
         <is>
           <t>1731014421.5234604</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="F130" t="inlineStr">
         <is>
           <t>1731014422.2855966</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
+      <c r="G130" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731014421.5234604.png</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
+      <c r="H130" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731014422.2855966.png</t>
         </is>
       </c>
-      <c r="G130" t="inlineStr">
+      <c r="I130" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I130" t="n">
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
         <v>38.16</v>
       </c>
-      <c r="J130" t="n">
+      <c r="L130" t="n">
         <v>38.16</v>
       </c>
-      <c r="K130" t="n">
+      <c r="M130" t="n">
+        <v>0</v>
+      </c>
+      <c r="N130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6733,139 +7907,166 @@
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="B131" t="n">
+        <v>129</v>
+      </c>
+      <c r="C131" t="n">
+        <v>129</v>
+      </c>
+      <c r="D131" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="E131" t="inlineStr">
         <is>
           <t>1731014423.3023677</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="F131" t="inlineStr">
         <is>
           <t>1731014423.814345</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="G131" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731014423.3023677.png</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
+      <c r="H131" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731014423.814345.png</t>
         </is>
       </c>
-      <c r="G131" t="inlineStr">
+      <c r="I131" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I131" t="n">
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
         <v>38</v>
       </c>
-      <c r="J131" t="n">
+      <c r="L131" t="n">
         <v>38.03</v>
       </c>
-      <c r="K131" t="n">
+      <c r="M131" t="n">
         <v>0.03000000000000114</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="B132" t="n">
+        <v>130</v>
+      </c>
+      <c r="C132" t="n">
+        <v>130</v>
+      </c>
+      <c r="D132" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="E132" t="inlineStr">
         <is>
           <t>1731014423.831303</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
+      <c r="F132" t="inlineStr">
         <is>
           <t>1731014425.10063</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731014423.831303.png</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
+      <c r="H132" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731014425.10063.png</t>
         </is>
       </c>
-      <c r="G132" t="inlineStr">
+      <c r="I132" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I132" t="n">
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
         <v>38.03</v>
       </c>
-      <c r="J132" t="n">
+      <c r="L132" t="n">
         <v>37.98</v>
       </c>
-      <c r="K132" t="n">
+      <c r="M132" t="n">
         <v>0.05000000000000426</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="B133" t="n">
+        <v>131</v>
+      </c>
+      <c r="C133" t="n">
+        <v>131</v>
+      </c>
+      <c r="D133" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>1731014425.57035</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr"/>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>./test_images/RUAL1731014425.57035.png</t>
         </is>
       </c>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr">
         <is>
+          <t>./test_images/RUAL1731014425.57035.png</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>ST5a</t>
-        </is>
-      </c>
-      <c r="I133" t="n">
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>ST5a</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
         <v>37.955</v>
       </c>
-      <c r="J133" t="n">
-        <v>37.955</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0</v>
+      <c r="L133" t="n">
+        <v>37.995</v>
+      </c>
+      <c r="M133" t="n">
+        <v>0.03999999999999915</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0.11</v>
       </c>
     </row>
   </sheetData>
@@ -6879,7 +8080,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6903,6 +8104,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -6911,11 +8127,20 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-8.490000000000009</v>
+        <v>-7.769999999999982</v>
       </c>
       <c r="C2" t="n">
         <v>14</v>
       </c>
+      <c r="D2" t="n">
+        <v>-0.5549999999999987</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-2.13</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.15</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -6924,11 +8149,20 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.7800000000000296</v>
+        <v>-0.06000000000000227</v>
       </c>
       <c r="C3" t="n">
         <v>13</v>
       </c>
+      <c r="D3" t="n">
+        <v>-0.00461538461538479</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -6937,11 +8171,20 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-53</v>
+        <v>-65.5</v>
       </c>
       <c r="C4" t="n">
         <v>12</v>
       </c>
+      <c r="D4" t="n">
+        <v>-5.458333333333333</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.9399999999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.08</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -6950,11 +8193,20 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.7999999999999545</v>
+        <v>-0.8199999999999648</v>
       </c>
       <c r="C5" t="n">
         <v>12</v>
       </c>
+      <c r="D5" t="n">
+        <v>-0.0683333333333304</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.6399999999999998</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.05</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -6963,11 +8215,20 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.049999999999727</v>
+        <v>-2.699999999999818</v>
       </c>
       <c r="C6" t="n">
         <v>10</v>
       </c>
+      <c r="D6" t="n">
+        <v>-0.2699999999999818</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.08999999999999997</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.01</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -6981,6 +8242,15 @@
       <c r="C7" t="n">
         <v>8</v>
       </c>
+      <c r="D7" t="n">
+        <v>0.006249999999994316</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -6989,11 +8259,20 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3599999999999852</v>
+        <v>0.460000000000008</v>
       </c>
       <c r="C8" t="n">
         <v>7</v>
       </c>
+      <c r="D8" t="n">
+        <v>0.06571428571428685</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.2599999999999999</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -7007,6 +8286,15 @@
       <c r="C9" t="n">
         <v>7</v>
       </c>
+      <c r="D9" t="n">
+        <v>0.1457142857142892</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -7015,11 +8303,20 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3199999999999932</v>
+        <v>0.2949999999999946</v>
       </c>
       <c r="C10" t="n">
         <v>6</v>
       </c>
+      <c r="D10" t="n">
+        <v>0.04916666666666577</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -7028,11 +8325,20 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-8.599999999999909</v>
+        <v>-10.39999999999986</v>
       </c>
       <c r="C11" t="n">
         <v>6</v>
       </c>
+      <c r="D11" t="n">
+        <v>-1.733333333333311</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.71</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.12</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -7046,6 +8352,15 @@
       <c r="C12" t="n">
         <v>6</v>
       </c>
+      <c r="D12" t="n">
+        <v>-0.01499999999999938</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.03</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -7054,11 +8369,20 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1199999999999477</v>
+        <v>0.3599999999999284</v>
       </c>
       <c r="C13" t="n">
         <v>6</v>
       </c>
+      <c r="D13" t="n">
+        <v>0.05999999999998806</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -7072,6 +8396,15 @@
       <c r="C14" t="n">
         <v>5</v>
       </c>
+      <c r="D14" t="n">
+        <v>-0.01399999999999864</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.02</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -7085,6 +8418,15 @@
       <c r="C15" t="n">
         <v>5</v>
       </c>
+      <c r="D15" t="n">
+        <v>-0.1379999999999995</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.51</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -7098,6 +8440,15 @@
       <c r="C16" t="n">
         <v>5</v>
       </c>
+      <c r="D16" t="n">
+        <v>0.6000000000000455</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -7106,11 +8457,20 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3550000000000111</v>
+        <v>0.3950000000000102</v>
       </c>
       <c r="C17" t="n">
         <v>5</v>
       </c>
+      <c r="D17" t="n">
+        <v>0.07900000000000204</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -7124,6 +8484,15 @@
       <c r="C18" t="n">
         <v>4</v>
       </c>
+      <c r="D18" t="n">
+        <v>-1.500000000000459e-05</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.06000000000000003</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.02</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -7137,6 +8506,11 @@
       <c r="C19" t="n">
         <v>0</v>
       </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
